--- a/Input data/Test_Graph.xlsx
+++ b/Input data/Test_Graph.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lichen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C24A640-B9A2-1645-98F1-1654C6B3F0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BB954F-D1C5-B04E-8226-78479C298014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2080" yWindow="1460" windowWidth="26720" windowHeight="15940" xr2:uid="{EAD743BE-78DF-244A-9525-075BEB4B2CA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -431,10 +431,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -442,10 +442,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -453,10 +453,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -464,10 +464,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -475,10 +475,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -486,10 +486,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -497,10 +497,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
         <v>5</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -519,10 +519,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -530,10 +530,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -541,10 +541,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
         <v>7</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -552,10 +552,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -563,10 +563,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -574,10 +574,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -585,10 +585,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -596,10 +596,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17">
         <v>10</v>
-      </c>
-      <c r="B17">
-        <v>11</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -618,10 +618,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
         <v>11</v>
-      </c>
-      <c r="B19">
-        <v>12</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -629,10 +629,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -640,10 +640,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -651,10 +651,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22">
         <v>13</v>
-      </c>
-      <c r="B22">
-        <v>14</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -662,10 +662,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23">
         <v>14</v>
-      </c>
-      <c r="B23">
-        <v>15</v>
       </c>
       <c r="C23">
         <v>8</v>
